--- a/biology/Histoire de la zoologie et de la botanique/Charles_René_Girard_de_Villars/Charles_René_Girard_de_Villars.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Charles_René_Girard_de_Villars/Charles_René_Girard_de_Villars.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Charles_Ren%C3%A9_Girard_de_Villars</t>
+          <t>Charles_René_Girard_de_Villars</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Charles René Girard de Villars est un naturaliste français, né le 19 octobre 1698 à Luçon (ou Mouchamps ?) et mort le 5 mars 1769 dans cette même ville.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Charles_Ren%C3%A9_Girard_de_Villars</t>
+          <t>Charles_René_Girard_de_Villars</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il fait des études de médecine et exerce à Chantonnay de 1733 à 1741. Conseiller du Roi, docteur en médecine, diplômé des universités de Montpellier et d’Angers, agrégé au Collège royal des médecins de La Rochelle, professeur d’anatomie et de chirurgie audit collège ; il devient alors membre de l’Académie des belles-lettres, sciences et arts de La Rochelle, dont il assure la vice-présidence en 1744 et la présidence en 1746. Il devient, en 1747, correspondant de l’Académie des sciences auprès de René-Antoine Ferchault de Réaumur (1683-1757) puis, à la mort de ce dernier d’Antoine de Jussieu (1686-1758).
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Charles_Ren%C3%A9_Girard_de_Villars</t>
+          <t>Charles_René_Girard_de_Villars</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Jean Dhombres (dir.) (1995). Aventures scientifiques. Savants en Poitou-Charentes du XVIe au XXe siècle. Les éditions de l’Actualité Poitou-Charentes (Poitiers) : 262 p.  (ISBN 2-911320-00-X)</t>
         </is>
